--- a/data/new_posteriors/no_elementary_skills/simple_model/noleak/unconstrained/results_model1a_noleak_unconstrained.xlsx
+++ b/data/new_posteriors/no_elementary_skills/simple_model/noleak/unconstrained/results_model1a_noleak_unconstrained.xlsx
@@ -622,28 +622,28 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9809504703577594</v>
+        <v>0.6849727380767096</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.674970483145514</v>
+        <v>0.5700746661307944</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.8736744872858907</v>
+        <v>0.4872143887998476</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>0.9360392914883309</v>
+        <v>0.0041648793378838474</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.7584620943822387</v>
+        <v>0.6079701652966274</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>0.5906994712162973</v>
+        <v>0.0797632590947867</v>
       </c>
       <c r="M3" t="n" s="25">
         <v>1.0</v>
@@ -657,28 +657,28 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.5877769800681012</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.7992287363191446</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.5861319551970811</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.678679797833568</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>0.9979245906049349</v>
+        <v>0.9176612110892678</v>
       </c>
       <c r="M4" t="n" s="25">
         <v>1.0</v>
@@ -692,28 +692,28 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J5" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.7193437247122121</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>0.9997425131017905</v>
+        <v>0.9545791351867183</v>
       </c>
       <c r="M5" t="n" s="25">
         <v>1.0</v>
@@ -727,28 +727,28 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J6" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.739765342982554</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>0.9999192688331611</v>
+        <v>0.9654824890527064</v>
       </c>
       <c r="M6" t="n" s="25">
         <v>1.0</v>
@@ -762,28 +762,28 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9968088971033306</v>
+        <v>0.8919496424114471</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.7324794792380951</v>
+        <v>0.6009717175665444</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.984297451505334</v>
+        <v>0.830616262198728</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>0.9999967622381147</v>
+        <v>0.8768869637069115</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.9044588161984988</v>
+        <v>0.7067003144618008</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>0.9984853853218583</v>
+        <v>0.8116390687508561</v>
       </c>
       <c r="M7" t="n" s="25">
         <v>1.0</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9999927960539116</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9977692688365313</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9977692688365313</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.004321894584155071</v>
+        <v>0.004617923023574186</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,28 +832,28 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J9" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9627368853578661</v>
+        <v>0.7915240903370154</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>0.9999812397699941</v>
+        <v>0.9832884763057923</v>
       </c>
       <c r="M9" t="n" s="25">
         <v>1.0</v>
@@ -867,28 +867,28 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.5971553229893413</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9797479520785931</v>
+        <v>0.8201096567611054</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>0.9999969161887128</v>
+        <v>0.8754405905552051</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.904559501439719</v>
+        <v>0.7197428602727403</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>0.9995672555645467</v>
+        <v>0.9509952568290649</v>
       </c>
       <c r="M10" t="n" s="25">
         <v>1.0</v>
@@ -902,28 +902,28 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9885608448928871</v>
+        <v>0.8339838232953839</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>0.9998133573861545</v>
+        <v>0.4073733526742735</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9365367438390729</v>
+        <v>0.7295348278903692</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>0.9958169570227607</v>
+        <v>0.33814571187994646</v>
       </c>
       <c r="M11" t="n" s="25">
         <v>1.0</v>
@@ -937,28 +937,28 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J12" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9627368853578661</v>
+        <v>0.7915240903370154</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>0.9999812397699941</v>
+        <v>0.9832884763057923</v>
       </c>
       <c r="M12" t="n" s="25">
         <v>1.0</v>
@@ -972,28 +972,28 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.3533029657290495</v>
+        <v>0.19703595729655585</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.606463156614538</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9002088658414172</v>
+        <v>0.4134357184018509</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>0.005964385326377179</v>
+        <v>1.8584670918705734E-4</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.9781616014951625</v>
+        <v>0.797450238890301</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>0.9862769572602218</v>
+        <v>0.01451968614537822</v>
       </c>
       <c r="M13" t="n" s="25">
         <v>1.0</v>
@@ -1007,28 +1007,28 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.8733374067261981</v>
+        <v>0.9711788569690689</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9997829081560113</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.017450032449341367</v>
+        <v>0.9999999999999318</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.840804709784475</v>
+        <v>0.9449507970549302</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.006882457873009964</v>
+        <v>0.9999990559183789</v>
       </c>
       <c r="M14" t="n" s="25">
         <v>1.2410868388321564E-13</v>
@@ -1042,28 +1042,28 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9905338361403787</v>
+        <v>0.8613507670238041</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.5877769800681012</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.7992287363191446</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>0.30738652215381285</v>
+        <v>6.776837838802724E-4</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.678679797833568</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>0.419026521926646</v>
+        <v>0.01644253957789013</v>
       </c>
       <c r="M15" t="n" s="25">
         <v>1.0</v>
@@ -1077,28 +1077,28 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.9694997603491593</v>
+        <v>0.9987903042003214</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.9997829081560113</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.9999842985060569</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9671003085684781</v>
+        <v>0.9980512318176604</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.999972628020562</v>
+        <v>1.0</v>
       </c>
       <c r="M16" t="n" s="25">
         <v>0.7011471544347262</v>
@@ -1112,28 +1112,28 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.5971553229893413</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9797479520785931</v>
+        <v>0.8201096567611054</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>0.9999969161887128</v>
+        <v>0.875440590555205</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.9008759257372884</v>
+        <v>0.7089097933643373</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>0.9995282213418744</v>
+        <v>0.9444047927297952</v>
       </c>
       <c r="M17" t="n" s="25">
         <v>1.0</v>
@@ -1147,28 +1147,28 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.882967998765312</v>
       </c>
       <c r="J18" t="n" s="25">
-        <v>0.9999999966836344</v>
+        <v>0.9985810821412547</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.964333109269324</v>
+        <v>0.7863640091470592</v>
       </c>
       <c r="L18" t="n" s="25">
-        <v>0.9999853906567512</v>
+        <v>0.9828254866273248</v>
       </c>
       <c r="M18" t="n" s="25">
         <v>1.0</v>
@@ -1182,28 +1182,28 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J19" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.739765342982554</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>0.9999192688331611</v>
+        <v>0.9654824890527064</v>
       </c>
       <c r="M19" t="n" s="25">
         <v>1.0</v>
@@ -1217,28 +1217,28 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J20" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.7193437247122121</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>0.9997425131017905</v>
+        <v>0.9545791351867183</v>
       </c>
       <c r="M20" t="n" s="25">
         <v>1.0</v>
@@ -1252,28 +1252,28 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.882967998765312</v>
       </c>
       <c r="J21" t="n" s="25">
-        <v>0.9999999966836344</v>
+        <v>0.9985810821412547</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9770765030198257</v>
+        <v>0.8194856694407152</v>
       </c>
       <c r="L21" t="n" s="25">
-        <v>0.9999961386581991</v>
+        <v>0.9899809541322</v>
       </c>
       <c r="M21" t="n" s="25">
         <v>1.0</v>
@@ -1287,28 +1287,28 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J22" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9436078345505399</v>
+        <v>0.759680585945149</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>0.9999319324218906</v>
+        <v>0.9731818414951381</v>
       </c>
       <c r="M22" t="n" s="25">
         <v>1.0</v>
@@ -1322,28 +1322,28 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.882967998765312</v>
       </c>
       <c r="J23" t="n" s="25">
-        <v>0.9999999966836344</v>
+        <v>0.9985810821412547</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9459775006770934</v>
+        <v>0.7539773129013997</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>0.9999469924696223</v>
+        <v>0.9724466954785681</v>
       </c>
       <c r="M23" t="n" s="25">
         <v>1.0</v>
@@ -1357,28 +1357,28 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J24" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9436078345505399</v>
+        <v>0.759680585945149</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>0.9999319324218906</v>
+        <v>0.9731818414951381</v>
       </c>
       <c r="M24" t="n" s="25">
         <v>1.0</v>
@@ -1392,28 +1392,28 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9968088971033306</v>
+        <v>0.8919496424114471</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>0.9999996335105977</v>
+        <v>0.968149917272218</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.7193437247122121</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>0.998970847387104</v>
+        <v>0.8401043384318275</v>
       </c>
       <c r="M25" t="n" s="25">
         <v>1.0</v>
@@ -1427,28 +1427,28 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.13114111166938652</v>
+        <v>0.03234054643086259</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.5877769800681012</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.04613522339545316</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>6.639663883450817E-4</v>
+        <v>9.062227111197936E-7</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.7737325837106038</v>
+        <v>0.6126164491905899</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>5.769443496744066E-4</v>
+        <v>2.737326750920186E-5</v>
       </c>
       <c r="M26" t="n" s="25">
         <v>1.0</v>
@@ -1462,28 +1462,28 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.5483374922325466</v>
+        <v>0.8246190279375946</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.7618433263360782</v>
+        <v>0.8662735795561382</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.9682861331015631</v>
+        <v>0.99874064435243</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>1.624375272816263E-4</v>
+        <v>0.9999533005655804</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.8819181686599766</v>
+        <v>0.972232503309079</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.0023351965632952233</v>
+        <v>0.9999999999992283</v>
       </c>
       <c r="M27" t="n" s="25">
         <v>1.7654859568125611E-15</v>
@@ -1497,28 +1497,28 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.9968088971033306</v>
+        <v>0.8919496424114471</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.7122951412806107</v>
+        <v>0.5890021868154777</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9777692175117446</v>
+        <v>0.8059707569183319</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>0.9999690181546949</v>
+        <v>0.6100175272692482</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.8953972389921141</v>
+        <v>0.6962995738487782</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>0.9978427664381618</v>
+        <v>0.784947258100854</v>
       </c>
       <c r="M28" t="n" s="25">
         <v>1.0</v>
@@ -1532,28 +1532,28 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.5605298473686615</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9434719745714708</v>
+        <v>0.7344286924050141</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>0.9972468511926885</v>
+        <v>0.06792790008000964</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.7297581602136269</v>
+        <v>0.5794434301407583</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>0.9807506894946164</v>
+        <v>0.7745437145558048</v>
       </c>
       <c r="M29" t="n" s="25">
         <v>1.0</v>
@@ -1567,28 +1567,28 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.024691130808242888</v>
+        <v>0.24618203983513448</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.05934541423616927</v>
+        <v>0.332861799352557</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>9.526175972641569E-9</v>
+        <v>0.9999996393029232</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>3.577172571567291E-7</v>
+        <v>2.8289806539147604E-6</v>
       </c>
       <c r="M30" t="n" s="25">
         <v>7.656402041107634E-21</v>
@@ -1602,28 +1602,28 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J31" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9596180024118807</v>
+        <v>0.7734607961679963</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>0.9999777493309582</v>
+        <v>0.9784263633883581</v>
       </c>
       <c r="M31" t="n" s="25">
         <v>1.0</v>
@@ -1637,28 +1637,28 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.006883710137959071</v>
+        <v>0.05540177470227523</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.027606512357588524</v>
+        <v>0.18335541751615783</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>1.4345145418622691E-9</v>
+        <v>0.9999964294753255</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>9.05472049093007E-8</v>
+        <v>7.160872410392714E-7</v>
       </c>
       <c r="M32" t="n" s="25">
         <v>6.485352837332754E-22</v>
@@ -1672,28 +1672,28 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.045721466238072286</v>
+        <v>0.05017723817369558</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>0.0010594566764149029</v>
+        <v>0.0017335322569434224</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>1.0367813482860173E-5</v>
+        <v>4.4305915002446644E-5</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>0.0010594566764149029</v>
+        <v>0.0017335322569434224</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>1.56996654690413E-6</v>
+        <v>1.5363275650891607E-5</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>8.881326156653101E-14</v>
+        <v>4.4099805918911106E-6</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>2.0314067463898518E-5</v>
+        <v>5.063501008687542E-5</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>1.150906552429908E-13</v>
+        <v>5.039974773408776E-6</v>
       </c>
       <c r="M33" t="n" s="25">
         <v>9.228898491199315E-28</v>
@@ -1707,28 +1707,28 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.15996447806746236</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>2.7512384299220882E-8</v>
+        <v>0.6406478961082073</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.7845431616827375</v>
+        <v>0.9045681722066153</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>2.814099341545634E-6</v>
+        <v>0.9939467084921085</v>
       </c>
       <c r="M34" t="n" s="25">
         <v>2.57894690037161E-20</v>
@@ -1742,28 +1742,28 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.006246915463928621</v>
+        <v>0.006675261981522124</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>5.717797461303841E-5</v>
+        <v>8.530518009265352E-5</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>4.5389724686753175E-7</v>
+        <v>2.2347855725919858E-6</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>5.717797461303841E-5</v>
+        <v>8.530518009265352E-5</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>1.988399400063767E-9</v>
+        <v>1.1655875945433453E-8</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>3.044564210327424E-17</v>
+        <v>2.7479710032843654E-10</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>6.484352662826217E-8</v>
+        <v>9.67443176578442E-8</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>7.191546029979546E-18</v>
+        <v>4.21564043868612E-17</v>
       </c>
       <c r="M35" t="n" s="25">
         <v>7.804352014252185E-32</v>
@@ -1777,28 +1777,28 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.15996447806746236</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>9.629334676929182E-9</v>
+        <v>0.3842270104588294</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>2.7144698271730495E-7</v>
+        <v>3.4665162703607087E-6</v>
       </c>
       <c r="M36" t="n" s="25">
         <v>8.706727141202958E-22</v>
@@ -1812,28 +1812,28 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.15996447806746236</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>2.7512384299220882E-8</v>
+        <v>0.6406478961082073</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.7845431616827375</v>
+        <v>0.9045681722066153</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>2.814099341545634E-6</v>
+        <v>0.9939467084921085</v>
       </c>
       <c r="M37" t="n" s="25">
         <v>2.57894690037161E-20</v>
@@ -1847,28 +1847,28 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.19108669698532876</v>
+        <v>0.8216172459450649</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.7284965309314696</v>
+        <v>0.8299426773513768</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.5902141955906135</v>
+        <v>0.9592125762477048</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.009262628580894647</v>
+        <v>1.0</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9044913421804115</v>
+        <v>0.9837545252349787</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.13290386662325926</v>
+        <v>1.0</v>
       </c>
       <c r="M38" t="n" s="25">
         <v>1.410315885121186E-10</v>
@@ -1882,28 +1882,28 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.15996447806746236</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>2.407333634460763E-8</v>
+        <v>0.6093654997681015</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.9063701837289754</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>2.567563211675575E-6</v>
+        <v>0.9932309565568482</v>
       </c>
       <c r="M39" t="n" s="25">
         <v>2.0588848886844645E-20</v>
@@ -1917,28 +1917,28 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.008463985931423034</v>
+        <v>0.045443078235677344</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.6860785771042868</v>
+        <v>0.780392620884872</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.07353001081552028</v>
+        <v>0.4470087556588036</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>1.2827793733791656E-9</v>
+        <v>0.06217283043528531</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.7714021066458305</v>
+        <v>0.8930585835262478</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>5.248366292051302E-7</v>
+        <v>0.96066650567755</v>
       </c>
       <c r="M40" t="n" s="25">
         <v>1.2024475109404543E-21</v>
@@ -1952,28 +1952,28 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.981526796893504</v>
+        <v>0.6928142436639624</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.7290488649443789</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>0.9999969994870932</v>
+        <v>0.9081453790585828</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9627368853578661</v>
+        <v>0.7915240903370154</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>0.9999073637330939</v>
+        <v>0.9225699768162343</v>
       </c>
       <c r="M41" t="n" s="25">
         <v>1.0</v>
@@ -1987,28 +1987,28 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313455823958</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.05757186612590944</v>
+        <v>0.10028139457741839</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>0.0011770896777079402</v>
+        <v>0.010722070146517342</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.05234631848308271</v>
+        <v>0.08695847889813614</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>1.2237846845151834E-5</v>
+        <v>9.378797364338727E-5</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>4.553933540452701E-13</v>
+        <v>1.6417237878391534E-5</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>2.2366311325667078E-4</v>
+        <v>3.8557506845440304E-4</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>1.7564202199803633E-13</v>
+        <v>1.3461888392965176E-12</v>
       </c>
       <c r="M42" t="n" s="25">
         <v>2.3161563034954754E-27</v>
@@ -2022,28 +2022,28 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.7569999973298706</v>
+        <v>0.8625221793939469</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.06338497485506275</v>
+        <v>0.2623900640041831</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.7284965309314696</v>
+        <v>0.8299426773513768</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.49448510568597837</v>
+        <v>0.9261467163758772</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>1.2296837405204546E-7</v>
+        <v>0.8888787865450515</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.8087945601342291</v>
+        <v>0.9213396571755159</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>9.836492962867764E-7</v>
+        <v>1.9197664408087127E-5</v>
       </c>
       <c r="M43" t="n" s="25">
         <v>1.7528227671732087E-20</v>
@@ -2057,28 +2057,28 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.0471745516433857</v>
+        <v>0.2952469787648854</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>4.388223490804888E-7</v>
+        <v>0.9999999927717834</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.7845431616827375</v>
+        <v>0.9045681722066153</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>1.40703383264089E-5</v>
+        <v>0.9987834503949069</v>
       </c>
       <c r="M44" t="n" s="25">
         <v>2.0567101530463616E-18</v>
@@ -2092,28 +2092,28 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.12016735311060146</v>
+        <v>0.388286730470859</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.8229148695016014</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.9692861012753826</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>4.926113887948835E-7</v>
+        <v>0.9757639330438445</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.7956557842747726</v>
+        <v>0.9144429078603507</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>1.4488483058016706E-5</v>
+        <v>0.9990823751741448</v>
       </c>
       <c r="M45" t="n" s="25">
         <v>5.163646440254665E-19</v>
@@ -2127,28 +2127,28 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313455823958</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>8.647858354859329E-4</v>
+        <v>0.0013420333855934095</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>5.03688479226789E-10</v>
+        <v>2.0572789934564925E-9</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>6.655342993343573E-4</v>
+        <v>8.552926810296434E-4</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>1.4114620379083903E-13</v>
+        <v>2.9152818440138893E-13</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>9.053702868323128E-27</v>
+        <v>2.846838121440382E-26</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>1.1328276505799824E-7</v>
+        <v>1.4560980285772916E-7</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>3.8286803174500814E-24</v>
+        <v>7.907886940081956E-24</v>
       </c>
       <c r="M46" t="n" s="25">
         <v>8.70300468337464E-44</v>
@@ -2162,28 +2162,28 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313003394408</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.11089545372339416</v>
+        <v>0.1864096628187317</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>3.1833950033621685E-4</v>
+        <v>0.004467702535970341</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.09770416462520505</v>
+        <v>0.15281058986487153</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>7.934997223840898E-7</v>
+        <v>3.518954453097641E-6</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>1.3026001725608736E-14</v>
+        <v>1.4474419192476592E-7</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>4.6398318297364953E-4</v>
+        <v>0.0011747429613875415</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>3.4441481521003886E-14</v>
+        <v>2.3232214455255577E-13</v>
       </c>
       <c r="M47" t="n" s="25">
         <v>5.72454355611416E-28</v>
@@ -2197,28 +2197,28 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313003394408</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.02785531353180161</v>
+        <v>0.04671731067052945</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>6.813508744903881E-4</v>
+        <v>0.0070028900832133515</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.02785531353180161</v>
+        <v>0.04671731067052945</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>3.508789999612214E-6</v>
+        <v>2.4936510800502556E-5</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>1.9326232311863147E-13</v>
+        <v>2.2607876102607068E-6</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>4.873716815823577E-5</v>
+        <v>8.335357659648668E-5</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>2.719385388270387E-14</v>
+        <v>1.9326729785850058E-13</v>
       </c>
       <c r="M48" t="n" s="25">
         <v>1.5165407583778182E-27</v>
@@ -2232,28 +2232,28 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.004757549969441033</v>
+        <v>0.025967339583455176</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.027606512357588524</v>
+        <v>0.18335541751615783</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>8.99382159116667E-11</v>
+        <v>0.003596103671920153</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>1.810944229366764E-8</v>
+        <v>1.4321753025285108E-7</v>
       </c>
       <c r="M49" t="n" s="25">
         <v>8.13210387126363E-24</v>
@@ -2267,28 +2267,28 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.11926232992286069</v>
+        <v>0.19551653046467282</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>4.6328981967779436E-5</v>
+        <v>2.1698797297459865E-4</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.086905653069955</v>
+        <v>0.1211417369274282</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>1.108461387787369E-5</v>
+        <v>5.872235823970568E-5</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>8.778901134917912E-15</v>
+        <v>2.359962071666018E-7</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.005113282249834816</v>
+        <v>0.007388360524396047</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>3.8181652846547327E-13</v>
+        <v>2.0228250952120288E-12</v>
       </c>
       <c r="M50" t="n" s="25">
         <v>4.2863987232010356E-29</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.27514364076773395</v>
+        <v>0.3014161561021932</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>4.897488086793816E-4</v>
+        <v>7.426173918813737E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>2.8727029489307932E-6</v>
+        <v>7.38757342052496E-5</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>4.897488086793816E-4</v>
+        <v>7.426173918813737E-4</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>4.034598531629884E-14</v>
+        <v>8.165129795307702E-14</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>2.0748623408910642E-23</v>
+        <v>5.177794605955995E-22</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>3.125515930969666E-11</v>
+        <v>4.740491059345484E-11</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>2.188820892378171E-24</v>
+        <v>4.4296865090390735E-24</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>2.1274579835762734E-36</v>
+        <v>2.1751783826471114E-36</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,28 +2337,28 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.029457011553773376</v>
+        <v>0.14476365183880371</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.7052854703577858</v>
+        <v>0.8040217779261294</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.2812335120236691</v>
+        <v>0.8337805673002197</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>7.869976845152644E-9</v>
+        <v>0.33860143210446497</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.705285470357786</v>
+        <v>0.8040217779261294</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>2.4958284047723093E-7</v>
+        <v>3.1996624521866744E-6</v>
       </c>
       <c r="M52" t="n" s="25">
         <v>7.115937204046461E-22</v>
@@ -2372,28 +2372,28 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9756082281569948</v>
+        <v>0.8074981055352135</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9771780330675633</v>
+        <v>0.7247284152130273</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>0.9717622464908452</v>
+        <v>0.023198903647771822</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.8314370370688623</v>
+        <v>0.5316283948225475</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>0.6927841416980128</v>
+        <v>0.011703555919773082</v>
       </c>
       <c r="M53" t="n" s="25">
         <v>1.0</v>
@@ -2407,28 +2407,28 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9707985521682724</v>
+        <v>0.7628737240417734</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.882967998765312</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>0.9994876186617352</v>
+        <v>0.3596225132353459</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.9470347883984256</v>
+        <v>0.7588736347354659</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>0.9962503889957453</v>
+        <v>0.33691849719417255</v>
       </c>
       <c r="M54" t="n" s="25">
         <v>1.0</v>
@@ -2442,28 +2442,28 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.7562607966539234</v>
+        <v>0.9381323553308165</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.8604948135634282</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9990612297298197</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.02556588849127701</v>
+        <v>0.999999999999941</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.9868504724037329</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.21580058231525912</v>
+        <v>1.0</v>
       </c>
       <c r="M55" t="n" s="25">
         <v>2.4640831711732882E-11</v>
@@ -2477,28 +2477,28 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J56" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.739765342982554</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>0.9999192688331611</v>
+        <v>0.9654824890527064</v>
       </c>
       <c r="M56" t="n" s="25">
         <v>1.0</v>
@@ -2512,28 +2512,28 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.7872831561304904</v>
+        <v>0.9804073923880329</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.7618433263360781</v>
+        <v>0.8662735795561382</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9682861331015631</v>
+        <v>0.99874064435243</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.19741989995118314</v>
+        <v>1.0</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.828683506180803</v>
+        <v>0.937104115444687</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.029224090796057377</v>
+        <v>0.9999997258819027</v>
       </c>
       <c r="M57" t="n" s="25">
         <v>3.4378989932860975E-11</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9999927960539116</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9977692688365313</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>1.0</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.9977692688365313</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.004321894584155071</v>
+        <v>0.004617923023574186</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,28 +2582,28 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.8344527617780872</v>
+        <v>0.9977165613626455</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.8229148695016014</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.8132235840234797</v>
+        <v>0.985941256215893</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9714717077835652</v>
+        <v>1.0</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.7956557842747726</v>
+        <v>0.9144429078603507</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.3229491826400221</v>
+        <v>0.9999999721015463</v>
       </c>
       <c r="M59" t="n" s="25">
         <v>5.288131135109775E-7</v>
@@ -2617,28 +2617,28 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.8227607568535849</v>
+        <v>0.6520232288900008</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>0.9968944035858028</v>
+        <v>0.9009037030368595</v>
       </c>
       <c r="M60" t="n" s="25">
         <v>1.0</v>
@@ -2652,28 +2652,28 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9346575308485182</v>
+        <v>0.9973157558127262</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.8604948135634282</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9990612297298197</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9991571617489646</v>
+        <v>1.0</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.9868504724037329</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9909970205122328</v>
+        <v>1.0</v>
       </c>
       <c r="M61" t="n" s="25">
         <v>4.451466843864698E-4</v>
@@ -2687,28 +2687,28 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9841131987958429</v>
+        <v>0.830660932232604</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>0.998851210711788</v>
+        <v>0.21802807171467833</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.7193437247122121</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>0.9732622069097371</v>
+        <v>0.16459761111329585</v>
       </c>
       <c r="M62" t="n" s="25">
         <v>1.0</v>
@@ -2722,28 +2722,28 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9738134916856797</v>
+        <v>0.6877095034420396</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.7290488649443789</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>0.9998655631626943</v>
+        <v>0.35056349658066327</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.8753024662366632</v>
+        <v>0.6866656220253159</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>0.931338587112266</v>
+        <v>0.1437947150175736</v>
       </c>
       <c r="M63" t="n" s="25">
         <v>1.0</v>
@@ -2757,28 +2757,28 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.5971553229893413</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9797479520785931</v>
+        <v>0.8201096567611054</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>0.9999969161887128</v>
+        <v>0.8754405905552051</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.8573872222225585</v>
+        <v>0.6755653881503325</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>0.9983646685504072</v>
+        <v>0.9182946791950537</v>
       </c>
       <c r="M64" t="n" s="25">
         <v>1.0</v>
@@ -2792,28 +2792,28 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.7595168408926141</v>
+        <v>0.621713623970335</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9596032061928864</v>
+        <v>0.6538503123132602</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9668243107018278</v>
+        <v>0.6950507960655844</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>0.9987535901101081</v>
+        <v>0.1471756049015557</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9424911485327869</v>
+        <v>0.7548069738867794</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>0.8994361480106599</v>
+        <v>0.0434862107639505</v>
       </c>
       <c r="M65" t="n" s="25">
         <v>1.0</v>
@@ -2827,28 +2827,28 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.6602552475955918</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.001861362588681025</v>
+        <v>0.014705743718923754</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.3632879002768594</v>
+        <v>0.46500992364612687</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.002334648471690322</v>
+        <v>0.017236911909576904</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>1.50868429919099E-10</v>
+        <v>0.9999649236918404</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.14615340448718184</v>
+        <v>0.20682641041410335</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>2.985397632888149E-9</v>
+        <v>2.2375677457860054E-8</v>
       </c>
       <c r="M66" t="n" s="25">
         <v>2.728267912888802E-23</v>
@@ -2862,28 +2862,28 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.6111637433433438</v>
+        <v>0.7705622719200201</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.8604948135634282</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9990612297298197</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.0012600011554655115</v>
+        <v>0.031313548853046505</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.9579575420306546</v>
+        <v>0.9973072208297405</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.5554405507383151</v>
+        <v>1.0</v>
       </c>
       <c r="M67" t="n" s="25">
         <v>5.379564156714728E-12</v>
@@ -2897,28 +2897,28 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.7618433263360781</v>
+        <v>0.6242574184825793</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.7660861085912837</v>
+        <v>0.28917322976934445</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.606463156614538</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.867215377379005</v>
+        <v>0.38098018855881116</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>0.9437468967604798</v>
+        <v>0.008041686276924585</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.8993761550653006</v>
+        <v>0.6892871122798014</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>0.36248421882322907</v>
+        <v>0.007132309575401283</v>
       </c>
       <c r="M68" t="n" s="25">
         <v>1.0</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985305578994287</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.11649642304771271</v>
+        <v>0.2028659531034087</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.0017115764693190758</v>
+        <v>0.02407349364499231</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.09958546777530575</v>
+        <v>0.16088493398868176</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>1.7152769463226939E-6</v>
+        <v>1.2053539558496873E-5</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>2.8041505075676272E-14</v>
+        <v>4.206030478704987E-8</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>5.9720205695604596E-5</v>
+        <v>1.0352438407454291E-4</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>3.282402476635954E-14</v>
+        <v>2.3066232667371144E-13</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>6.338696783396015E-27</v>
+        <v>6.480878270611203E-27</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,28 +2967,28 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.06697991627536115</v>
+        <v>0.47948785608466477</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>1.865421747630777E-5</v>
+        <v>1.0</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.9578926778704535</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>7.093136895494858E-4</v>
+        <v>0.9999999999946045</v>
       </c>
       <c r="M70" t="n" s="25">
         <v>4.4106759495324635E-15</v>
@@ -3002,28 +3002,28 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.06812213291002646</v>
+        <v>0.07420603912370513</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.008731628464025731</v>
+        <v>0.01478541638296074</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>0.0010942698269273976</v>
+        <v>0.004250599788417426</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.008731628464025731</v>
+        <v>0.01478541638296074</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>5.504864655709427E-5</v>
+        <v>5.880872160894774E-4</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>3.396703093184386E-10</v>
+        <v>0.004166982089989211</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>2.8772039707724054E-4</v>
+        <v>0.001722534464978535</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>3.446880635317074E-9</v>
+        <v>0.9999999999208042</v>
       </c>
       <c r="M71" t="n" s="25">
         <v>2.0097641141406763E-20</v>
@@ -3037,28 +3037,28 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.6602552475955918</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.02104047908390921</v>
+        <v>0.4776057607663557</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.3901434052392967</v>
+        <v>0.5083514224280349</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.008540534720635614</v>
+        <v>0.07598183064892375</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>1.568068136993162E-4</v>
+        <v>1.0</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.2322778280452015</v>
+        <v>0.42675688023813435</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>4.157715165575326E-5</v>
+        <v>0.9994373056573483</v>
       </c>
       <c r="M72" t="n" s="25">
         <v>1.0730471235055361E-13</v>
@@ -3072,28 +3072,28 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985312724976514</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.6602548278049176</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.020422023940954038</v>
+        <v>0.09925297677251249</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.445970566896683</v>
+        <v>0.5941737503248594</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.009963868322645527</v>
+        <v>0.11671358599169597</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>2.4098602418717395E-11</v>
+        <v>4.779009099187408E-10</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.023579336272429526</v>
+        <v>0.04207518231570896</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>1.9259001671935177E-10</v>
+        <v>2.5285799927011125E-9</v>
       </c>
       <c r="M73" t="n" s="25">
         <v>6.53689878174371E-25</v>
@@ -3107,28 +3107,28 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.5877769800681012</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.7992287363191446</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.5861319551970811</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.637493946521149</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>0.9925102964312498</v>
+        <v>0.8729917080423756</v>
       </c>
       <c r="M74" t="n" s="25">
         <v>1.0</v>
@@ -3142,28 +3142,28 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.9061898937440215</v>
+        <v>0.5531385551615113</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.7290488649443789</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>0.9888830600469214</v>
+        <v>0.06468248852908758</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9389893343444585</v>
+        <v>0.739765342982554</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>0.9887367455662455</v>
+        <v>0.16544478343439073</v>
       </c>
       <c r="M75" t="n" s="25">
         <v>1.0</v>
@@ -3177,28 +3177,28 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.16242407542590961</v>
+        <v>0.07366418111180098</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.5971553229893413</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.15585966876364427</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>1.0025067479395184E-5</v>
+        <v>1.5243261156742003E-7</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.8468240708751649</v>
+        <v>0.6519075385449931</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>2.9477331710697915E-4</v>
+        <v>4.943367734225868E-6</v>
       </c>
       <c r="M76" t="n" s="25">
         <v>1.0</v>
@@ -3212,28 +3212,28 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313309654346</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.6602551076652668</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.0019943761498899468</v>
+        <v>0.010513737278091044</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.398599682256439</v>
+        <v>0.5195192198295104</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.0010825650470115647</v>
+        <v>0.008756440432073966</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>2.487445900266526E-13</v>
+        <v>3.080855423446947E-12</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.04735498024061399</v>
+        <v>0.075010756414788</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>2.073868635741692E-11</v>
+        <v>1.6904567154311647E-10</v>
       </c>
       <c r="M77" t="n" s="25">
         <v>2.698941920729574E-27</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9591584426502122</v>
+        <v>0.9993852471629775</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.83353037944099</v>
+        <v>0.9753684854261621</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.007721045109984598</v>
+        <v>1.0</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6553976139121289</v>
+        <v>0.7434128848755394</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.018430568692753942</v>
+        <v>0.1292945276390458</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>4.136153468773427E-12</v>
+        <v>4.323788261407607E-12</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313374618609</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426043776644</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.6796818533407643</v>
+        <v>0.9872913131703093</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.7455295518226628</v>
+        <v>0.8490042410103292</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.6112935927504931</v>
+        <v>0.9644057730322286</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.021981056257083357</v>
+        <v>1.0</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.4677790278214197</v>
+        <v>0.6278115259840158</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>5.34724599176192E-4</v>
+        <v>0.00913334283452565</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>3.6127458676636305E-12</v>
+        <v>3.693782332720383E-12</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,28 +3317,28 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.5800902404379042</v>
+        <v>0.7351475040406231</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.051250628862805354</v>
+        <v>0.19098570635409834</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.536768411823008</v>
+        <v>0.6764958738261143</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.25855510168895124</v>
+        <v>0.8408061440126682</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>8.767553265867993E-8</v>
+        <v>0.8707687149619124</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.4408644095589335</v>
+        <v>0.683978394300384</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>1.1604194738998666E-6</v>
+        <v>0.9879514602725358</v>
       </c>
       <c r="M80" t="n" s="25">
         <v>4.1356407015260195E-20</v>
@@ -3352,28 +3352,28 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.06812213291002646</v>
+        <v>0.0625983703563977</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.0080027465892648</v>
+        <v>0.005116228169713362</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>0.001233499337011663</v>
+        <v>1.8586737964412634E-4</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.008002746589264795</v>
+        <v>0.005116228169713362</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>6.922059110273342E-5</v>
+        <v>1.1672518352264789E-5</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>5.309343558360048E-6</v>
+        <v>4.918163129165051E-9</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>0.001160748034509896</v>
+        <v>4.4297026335606026E-4</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>2.6008781548457643E-8</v>
+        <v>1.4829123374401331E-9</v>
       </c>
       <c r="M81" t="n" s="25">
         <v>1.0</v>
@@ -3387,28 +3387,28 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.04623873123358959</v>
+        <v>0.29048602809209667</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>1.9596711393156962E-7</v>
+        <v>0.9999999841507543</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>1.8096437678554385E-6</v>
+        <v>2.310965451244231E-5</v>
       </c>
       <c r="M82" t="n" s="25">
         <v>1.1812740719423656E-19</v>
@@ -3422,28 +3422,28 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.15996447806746236</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>9.629334676929182E-9</v>
+        <v>0.3842270104588294</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>2.7144698271730495E-7</v>
+        <v>3.4665162703607087E-6</v>
       </c>
       <c r="M83" t="n" s="25">
         <v>8.706727141202958E-22</v>
@@ -3457,28 +3457,28 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.988797544895626</v>
+        <v>0.8376551399733606</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.882967998765312</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>0.9999106441808757</v>
+        <v>0.41914868954165574</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.8907693199410025</v>
+        <v>0.7081345875920907</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>0.899806262009687</v>
+        <v>0.08605807399075717</v>
       </c>
       <c r="M84" t="n" s="25">
         <v>1.0</v>
@@ -3492,28 +3492,28 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.5877769800681012</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.7992287363191446</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.5861319551970811</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.8516409323597693</v>
+        <v>0.678679797833568</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>0.9979245906049349</v>
+        <v>0.9176612110892678</v>
       </c>
       <c r="M85" t="n" s="25">
         <v>1.0</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9568082994815916</v>
+        <v>0.998831163786414</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.8426148506596306</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.967814371491711</v>
+        <v>0.9983656841528084</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9913223477779352</v>
+        <v>1.0</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.8095768297436962</v>
+        <v>0.9248901284707635</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.6640398203089211</v>
+        <v>0.9999999946619853</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>1.0644162772859196E-6</v>
+        <v>1.0882918671413269E-6</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,28 +3562,28 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9867842629303349</v>
+        <v>0.7068762078753006</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.6807592811971381</v>
+        <v>0.5756910996035355</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.880562607427304</v>
+        <v>0.5028863564642895</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>0.9948910925968469</v>
+        <v>0.023374234700351423</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.7707324944941936</v>
+        <v>0.625938062792111</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>0.8932572790390522</v>
+        <v>0.34383858904132164</v>
       </c>
       <c r="M87" t="n" s="25">
         <v>1.0</v>
@@ -3597,28 +3597,28 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.020986824288604895</v>
+        <v>0.022682285125473656</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>7.092032010166336E-4</v>
+        <v>0.0011302298009929661</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>1.0171413749365314E-4</v>
+        <v>0.0023602672317043255</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>7.092032010166336E-4</v>
+        <v>0.0011302298009929661</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>2.3111735539810756E-6</v>
+        <v>2.1694831145774705E-5</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>7.480557064348495E-8</v>
+        <v>1.0</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>1.34132734449585E-5</v>
+        <v>2.1385056453335455E-5</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>7.430185918855345E-11</v>
+        <v>6.974800882486709E-10</v>
       </c>
       <c r="M88" t="n" s="25">
         <v>3.4089698332704586E-19</v>
@@ -3632,28 +3632,28 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313455823958</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426238172824</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.8493397744982133</v>
+        <v>0.9962757627698025</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.7376421550530808</v>
+        <v>0.8426148130153486</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.7331684332346636</v>
+        <v>0.978947156258016</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9175401067994359</v>
+        <v>1.0</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.7200048326966474</v>
+        <v>0.9188885287142264</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.38580263437320134</v>
+        <v>0.999999999999973</v>
       </c>
       <c r="M89" t="n" s="25">
         <v>9.014375840417844E-7</v>
@@ -3667,28 +3667,28 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9554888758789571</v>
+        <v>0.7333854899844238</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.992936562550551</v>
+        <v>0.882967998765312</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>0.9836636968267503</v>
+        <v>0.03733428380840982</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.8845040153276452</v>
+        <v>0.6914003827766864</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>0.6885433062987472</v>
+        <v>0.021182695647211067</v>
       </c>
       <c r="M90" t="n" s="25">
         <v>1.0</v>
@@ -3702,28 +3702,28 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313421021666</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426154860174</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.05008052959722529</v>
+        <v>0.30915382266960256</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013303783523054</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.10360227972619643</v>
+        <v>0.5519486906719804</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>4.038043466700058E-9</v>
+        <v>0.10421248716063528</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.4521774018300542</v>
+        <v>0.585357954857869</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>7.372318984495232E-8</v>
+        <v>7.857894555294903E-7</v>
       </c>
       <c r="M91" t="n" s="25">
         <v>1.0431856296225538E-21</v>
@@ -3737,28 +3737,28 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.4897112955352949</v>
+        <v>0.33262990608088155</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9300054074915157</v>
+        <v>0.36684796886762644</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.4143460471483453</v>
+        <v>0.29960285831762273</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.46411937185903757</v>
+        <v>0.09369928541093021</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>0.9367732376144904</v>
+        <v>0.002032400821598307</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.2507132563409731</v>
+        <v>0.1366447215404712</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>0.09356354529664151</v>
+        <v>0.005591749839870624</v>
       </c>
       <c r="M92" t="n" s="25">
         <v>1.0</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313374618609</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426043776644</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.7274885272746869</v>
+        <v>0.9587641054540468</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.7618433263360782</v>
+        <v>0.8662735233511163</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.878650711428947</v>
+        <v>0.9936844603378181</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>1.2174680578467077E-4</v>
+        <v>0.9999999998928938</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.489711295535295</v>
+        <v>0.6602551387608857</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>3.079002067998936E-5</v>
+        <v>6.686392553232419E-4</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>2.446564039163664E-16</v>
+        <v>2.5014422145271984E-16</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,28 +3807,28 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.5877769800681012</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.972241196527547</v>
+        <v>0.7992287363191446</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>0.9999673447003828</v>
+        <v>0.5861319551970811</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.637493946521149</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>0.9925102964312498</v>
+        <v>0.8729917080423756</v>
       </c>
       <c r="M94" t="n" s="25">
         <v>1.0</v>
@@ -3842,28 +3842,28 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313455823958</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426238172824</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.7750293465865653</v>
+        <v>0.9442173649439504</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.8604947766162794</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9267441338152166</v>
+        <v>0.9963103231948588</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>1.8567914185259972E-4</v>
+        <v>0.9999183633141524</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.7373785384454257</v>
+        <v>0.9288351471335159</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.0010833496452040824</v>
+        <v>0.9999999999875957</v>
       </c>
       <c r="M95" t="n" s="25">
         <v>5.641944359631656E-15</v>
@@ -3877,28 +3877,28 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.9924030312578133</v>
+        <v>0.8545785722653372</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.43020380780424505</v>
+        <v>0.06889385263915868</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>0.4657628394099475</v>
+        <v>4.236488139446173E-4</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.14517278733836514</v>
+        <v>0.039393729809719266</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>0.04257276389252209</v>
+        <v>3.639607970455918E-4</v>
       </c>
       <c r="M96" t="n" s="25">
         <v>1.0</v>
@@ -3912,28 +3912,28 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.6553976139121288</v>
+        <v>0.5605298473686615</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9434719745714708</v>
+        <v>0.7344286924050141</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>0.9972468511926885</v>
+        <v>0.06792790008000964</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.7338831660182108</v>
+        <v>0.585854321611789</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>0.98156416456483</v>
+        <v>0.7863515013571084</v>
       </c>
       <c r="M97" t="n" s="25">
         <v>1.0</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985310605914391</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818419415805795</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9623129932382705</v>
+        <v>0.9976184123787228</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818419415805795</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.6822577181284157</v>
+        <v>0.9762411497587007</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>9.153202507436603E-4</v>
+        <v>0.9999999993805655</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.14263925717647358</v>
+        <v>0.35094816044633353</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>1.0584369358246136E-4</v>
+        <v>0.9966520946378499</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>2.0324543250966352E-13</v>
+        <v>2.124655726400685E-13</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,28 +3982,28 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.995475202538679</v>
+        <v>0.8842836489820597</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.6939507756414549</v>
+        <v>0.5795676720179768</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.8391859958005626</v>
+        <v>0.4058307812720341</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>0.6905210224529164</v>
+        <v>0.001193065593998435</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.509060019912346</v>
+        <v>0.27385024281857623</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>0.32129579858297874</v>
+        <v>0.011703584926869993</v>
       </c>
       <c r="M99" t="n" s="25">
         <v>1.0</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313374618609</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.3042035450881553</v>
+        <v>0.45359066777228396</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.009181632844348343</v>
+        <v>0.05377848607999115</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.2683197248302214</v>
+        <v>0.38476849932266755</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.0022445372287307904</v>
+        <v>0.020803543261632345</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>2.1957806136288195E-10</v>
+        <v>0.004885223151702939</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.026589785698522096</v>
+        <v>0.06622415082139475</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>2.137745301039529E-9</v>
+        <v>0.026388742112371556</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>9.859253240384029E-23</v>
+        <v>1.008040331846016E-22</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,28 +4052,28 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9346575308485182</v>
+        <v>0.9973157558127262</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.8604948135634282</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9764893150342865</v>
+        <v>0.9990612297298197</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9991571617489646</v>
+        <v>1.0</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9138984359801404</v>
+        <v>0.9868504724037329</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9909970205122328</v>
+        <v>1.0</v>
       </c>
       <c r="M101" t="n" s="25">
         <v>4.451466843864698E-4</v>
@@ -4087,28 +4087,28 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.04623873123358959</v>
+        <v>0.29048602809209667</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>4.899176408173047E-7</v>
+        <v>0.9999999936603017</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.9063701837289754</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>1.7116839035962012E-5</v>
+        <v>0.9989787676322035</v>
       </c>
       <c r="M102" t="n" s="25">
         <v>2.7933657465931215E-18</v>
@@ -4122,28 +4122,28 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.12016735311060144</v>
+        <v>0.388286730470859</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.8229148695016014</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.9692861012753826</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>1.4778346759833848E-7</v>
+        <v>0.9235371473827584</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.8229148695016014</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>1.249785494532256E-6</v>
+        <v>2.0130004703971488E-5</v>
       </c>
       <c r="M103" t="n" s="25">
         <v>1.3362403003882863E-20</v>
@@ -4157,28 +4157,28 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.04623873123358959</v>
+        <v>0.29048602809209667</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>1.9596711393156962E-7</v>
+        <v>0.9999999841507543</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>1.8096437678554385E-6</v>
+        <v>2.310965451244231E-5</v>
       </c>
       <c r="M104" t="n" s="25">
         <v>1.1812740719423656E-19</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985312887386927</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818424877400035</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.871353576898401</v>
+        <v>0.9927385407900096</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.7618433263360782</v>
+        <v>0.8662734029118515</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.42574361319690585</v>
+        <v>0.9177786856573018</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>3.163117589984986E-5</v>
+        <v>0.999999998395265</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.1472971621710134</v>
+        <v>0.2591544291989657</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>3.1527189750222874E-6</v>
+        <v>4.746541260484514E-5</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>1.588968246694551E-16</v>
+        <v>1.624609937119707E-16</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,28 +4227,28 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.15996447806746236</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>2.407333634460763E-8</v>
+        <v>0.6093654997681015</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.7880370721946085</v>
+        <v>0.9063701837289754</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>2.567563211675575E-6</v>
+        <v>0.9932309565568482</v>
       </c>
       <c r="M106" t="n" s="25">
         <v>2.0588848886844645E-20</v>
@@ -4262,28 +4262,28 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.5585407182938172</v>
+        <v>0.7066784480113286</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.441832025442639</v>
+        <v>0.6948167649256526</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.5800902404379042</v>
+        <v>0.7351475040406231</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.842565530058769</v>
+        <v>0.9903135082447841</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>1.6609284508462872E-4</v>
+        <v>0.9999379007609341</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.6824765461919297</v>
+        <v>0.9382612875973997</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>3.120968414434525E-4</v>
+        <v>0.9999999999949354</v>
       </c>
       <c r="M107" t="n" s="25">
         <v>1.373621899483168E-15</v>
@@ -4297,28 +4297,28 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5300174098616829</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.6333235626590777</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.997842734389087</v>
+        <v>0.9038596866001081</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.7542949324969371</v>
+        <v>0.6156943344006821</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9892815933705493</v>
+        <v>0.8567199482689203</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>0.9999999725000644</v>
+        <v>0.994255994989879</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.8753024662366632</v>
+        <v>0.6866656220253159</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>0.9991050627675975</v>
+        <v>0.9325353080084909</v>
       </c>
       <c r="M108" t="n" s="25">
         <v>1.0</v>
@@ -4332,28 +4332,28 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.554781967832804</v>
+        <v>0.7150640156880403</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.0017024945433056716</v>
+        <v>0.008884752320561516</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.4320628040756834</v>
+        <v>0.5368064552690351</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.004035012097422186</v>
+        <v>0.02931344734100669</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>1.2834398968950513E-11</v>
+        <v>4.851915633781408E-4</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.2333071182681174</v>
+        <v>0.31673915637463873</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>1.0337043451307976E-9</v>
+        <v>7.705191764468315E-9</v>
       </c>
       <c r="M109" t="n" s="25">
         <v>4.641882851454618E-25</v>
@@ -4367,28 +4367,28 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.29397083363923504</v>
+        <v>0.8710568189829709</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.8229148695016014</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.6620819930112958</v>
+        <v>0.9692861012753826</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>6.388897734357615E-4</v>
+        <v>1.0</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7202792732449277</v>
+        <v>0.8229148695016014</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>1.6661051051179696E-4</v>
+        <v>0.0026768697923959996</v>
       </c>
       <c r="M110" t="n" s="25">
         <v>7.70727538837998E-15</v>
@@ -4402,28 +4402,28 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.5641619091873644</v>
+        <v>0.5985313601993631</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.7774234838586619</v>
+        <v>0.8818426588085999</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.033017563155576135</v>
+        <v>0.15996447806746236</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.7022311691808126</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.2985158607888728</v>
+        <v>0.8445876403035237</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>9.629334676929182E-9</v>
+        <v>0.3842270104588294</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.7022311691808127</v>
+        <v>0.8013304248731838</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>2.7144698271730495E-7</v>
+        <v>3.4665162703607087E-6</v>
       </c>
       <c r="M111" t="n" s="25">
         <v>8.706727141202958E-22</v>
